--- a/5-WebDevelopmentAndDBDesigning.xlsx
+++ b/5-WebDevelopmentAndDBDesigning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bosch-my.sharepoint.com/personal/pit5lo_bosch_com/Documents/Ausbildung - Fachinformatik/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Fachinformatiker-Ausbildung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E7F6CE-221C-4DB8-876C-5234E5AF6F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5127D10F-10AA-4815-999E-9063F736592B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="-16200" windowWidth="14610" windowHeight="15585" xr2:uid="{9CD730A3-8F49-4384-BBDD-74FD70423D42}"/>
+    <workbookView xWindow="17100" yWindow="0" windowWidth="11805" windowHeight="15585" firstSheet="1" activeTab="2" xr2:uid="{9CD730A3-8F49-4384-BBDD-74FD70423D42}"/>
   </bookViews>
   <sheets>
     <sheet name="Montag" sheetId="3" r:id="rId1"/>
@@ -135,9 +135,6 @@
     <t>DB Design</t>
   </si>
   <si>
-    <t>Create the DB and a table for users with name, email, birthdate, and password</t>
-  </si>
-  <si>
     <t>Create a .php for DB-files connection and test it with a console message</t>
   </si>
   <si>
@@ -169,9 +166,6 @@
   </si>
   <si>
     <t>E-main contains @</t>
-  </si>
-  <si>
-    <t>Any input empy</t>
   </si>
   <si>
     <t>No registration with any existing email address</t>
@@ -384,6 +378,12 @@
   <si>
     <t>Project Last Points And Presentation</t>
   </si>
+  <si>
+    <t>Create the DB and a table for users with ID, email, birthdate, and password</t>
+  </si>
+  <si>
+    <t>Any input empty</t>
+  </si>
 </sst>
 </file>
 
@@ -1074,7 +1074,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1145,120 +1145,111 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1271,7 +1262,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1659,20 +1650,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575A0497-0EE0-446F-8FD5-7A3191851625}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="61.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7265625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="61.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1686,57 +1677,57 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="43" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="17"/>
     </row>
-    <row r="3" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>0.34375</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="47"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="44"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="48"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="45"/>
       <c r="D4" s="18"/>
     </row>
-    <row r="5" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>0.36458333333333298</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51"/>
-    </row>
-    <row r="6" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="47"/>
+      <c r="D5" s="48"/>
+    </row>
+    <row r="6" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>0.375</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="54"/>
-    </row>
-    <row r="7" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="49"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="51"/>
+    </row>
+    <row r="7" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>0.38541666666666702</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="60" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="20" t="s">
@@ -1744,87 +1735,87 @@
       </c>
       <c r="D7" s="19"/>
     </row>
-    <row r="8" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="60" t="s">
+      <c r="B8" s="53"/>
+      <c r="C8" s="57" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>0.40625</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="61"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="58"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B10" s="56"/>
+      <c r="B10" s="53"/>
       <c r="C10" s="21" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>0.42708333333333298</v>
       </c>
-      <c r="B11" s="56"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="21" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="56"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="58" t="s">
+      <c r="B13" s="53"/>
+      <c r="C13" s="55" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="59"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>0.46875</v>
       </c>
-      <c r="B15" s="64"/>
+      <c r="B15" s="61"/>
       <c r="C15" s="21" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="52" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1832,77 +1823,77 @@
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B17" s="64"/>
+      <c r="B17" s="61"/>
       <c r="C17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="35">
+    <row r="18" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="32">
         <v>0.5</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
-    </row>
-    <row r="19" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="36"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
-    </row>
-    <row r="20" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="36"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39"/>
-    </row>
-    <row r="21" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="37"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39"/>
-    </row>
-    <row r="22" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+    </row>
+    <row r="19" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="33"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
+    </row>
+    <row r="20" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="33"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+    </row>
+    <row r="21" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="34"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
+    </row>
+    <row r="22" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="57" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="62"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="59"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>0.5625</v>
       </c>
-      <c r="B24" s="64"/>
-      <c r="C24" s="61"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="58"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B25" s="55" t="s">
+      <c r="B25" s="52" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -1910,43 +1901,43 @@
       </c>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B26" s="56"/>
-      <c r="C26" s="58" t="s">
+      <c r="B26" s="53"/>
+      <c r="C26" s="55" t="s">
         <v>22</v>
       </c>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>0.59375</v>
       </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="59"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="56"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B28" s="57"/>
+      <c r="B28" s="54"/>
       <c r="C28" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="41"/>
-      <c r="D29" s="42"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1973,20 +1964,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E2BF86-5BDF-480D-A26D-C21A6EA25768}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:E17"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="61.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7265625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="61.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2000,265 +1991,265 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="20" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>0.34375</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="25" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="21" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="24" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>0.36458333333333298</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51"/>
-    </row>
-    <row r="6" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="47"/>
+      <c r="D5" s="48"/>
+    </row>
+    <row r="6" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>0.375</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="67"/>
-    </row>
-    <row r="7" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="62"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="64"/>
+    </row>
+    <row r="7" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>0.38541666666666702</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="28"/>
-    </row>
-    <row r="8" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="26"/>
+    </row>
+    <row r="8" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="47"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="44"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>0.40625</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="29"/>
-    </row>
-    <row r="10" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="42"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="27"/>
+    </row>
+    <row r="10" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B10" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="61" t="s">
+      <c r="B10" s="61" t="s">
         <v>30</v>
       </c>
+      <c r="C10" s="58" t="s">
+        <v>29</v>
+      </c>
       <c r="D10" s="19"/>
     </row>
-    <row r="11" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>0.42708333333333298</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="47"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="44"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="29"/>
-    </row>
-    <row r="13" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="42"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="27"/>
+    </row>
+    <row r="13" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B13" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="28"/>
-    </row>
-    <row r="14" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="26"/>
+    </row>
+    <row r="14" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="25" t="s">
-        <v>36</v>
+      <c r="B14" s="53"/>
+      <c r="C14" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>0.46875</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="60" t="s">
-        <v>37</v>
+      <c r="B15" s="53"/>
+      <c r="C15" s="57" t="s">
+        <v>36</v>
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B16" s="56"/>
-      <c r="C16" s="62"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="59"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="29"/>
-    </row>
-    <row r="18" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="35">
+      <c r="B17" s="54"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="27"/>
+    </row>
+    <row r="18" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="32">
         <v>0.5</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
-    </row>
-    <row r="19" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="36"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
-    </row>
-    <row r="20" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="36"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39"/>
-    </row>
-    <row r="21" spans="1:4" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="37"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39"/>
-    </row>
-    <row r="22" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+    </row>
+    <row r="19" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="33"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
+    </row>
+    <row r="20" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="33"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+    </row>
+    <row r="21" spans="1:4" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="34"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
+    </row>
+    <row r="22" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B22" s="26"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="31"/>
-    </row>
-    <row r="23" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+      <c r="D22" s="29"/>
+    </row>
+    <row r="23" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="28"/>
-    </row>
-    <row r="24" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D23" s="26"/>
+    </row>
+    <row r="24" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="29"/>
-    </row>
-    <row r="25" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="42"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="27"/>
+    </row>
+    <row r="25" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B25" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="62" t="s">
-        <v>41</v>
+      <c r="B25" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="59" t="s">
+        <v>81</v>
       </c>
       <c r="D25" s="19"/>
     </row>
-    <row r="26" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B26" s="56"/>
-      <c r="C26" s="61"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="58"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>0.59375</v>
       </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="60" t="s">
-        <v>40</v>
+      <c r="B27" s="53"/>
+      <c r="C27" s="57" t="s">
+        <v>39</v>
       </c>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B28" s="57"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="29"/>
-    </row>
-    <row r="29" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="54"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="27"/>
+    </row>
+    <row r="29" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="41"/>
-      <c r="D29" s="42"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -2287,20 +2278,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BBD3D14-1678-436F-947A-2F15D441CEA6}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:C28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="61.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7265625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="61.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2314,255 +2305,255 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B2" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="69" t="s">
-        <v>42</v>
+      <c r="B2" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>40</v>
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>0.34375</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="70"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="67"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="59"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>0.36458333333333298</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51"/>
-    </row>
-    <row r="6" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="47"/>
+      <c r="D5" s="48"/>
+    </row>
+    <row r="6" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>0.375</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="54"/>
-    </row>
-    <row r="7" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="49"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="51"/>
+    </row>
+    <row r="7" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>0.38541666666666702</v>
       </c>
-      <c r="B7" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="69" t="s">
-        <v>43</v>
+      <c r="B7" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>41</v>
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="70"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="67"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>0.40625</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="59"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="56"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="58" t="s">
-        <v>44</v>
+      <c r="B10" s="53"/>
+      <c r="C10" s="55" t="s">
+        <v>42</v>
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>0.42708333333333298</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="59"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="56"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="55" t="s">
-        <v>80</v>
+      <c r="B12" s="52" t="s">
+        <v>78</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="58" t="s">
-        <v>45</v>
+      <c r="B13" s="53"/>
+      <c r="C13" s="55" t="s">
+        <v>43</v>
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="59"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>0.46875</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="58" t="s">
-        <v>46</v>
+      <c r="B15" s="53"/>
+      <c r="C15" s="55" t="s">
+        <v>44</v>
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B16" s="56"/>
-      <c r="C16" s="70"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="67"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B17" s="64"/>
-      <c r="C17" s="59"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="56"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="35">
+    <row r="18" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="32">
         <v>0.5</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
-    </row>
-    <row r="19" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="36"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
-    </row>
-    <row r="20" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="36"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39"/>
-    </row>
-    <row r="21" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="37"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39"/>
-    </row>
-    <row r="22" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+    </row>
+    <row r="19" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="33"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
+    </row>
+    <row r="20" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="33"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+    </row>
+    <row r="21" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="34"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
+    </row>
+    <row r="22" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B22" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="58" t="s">
+      <c r="B22" s="52" t="s">
         <v>47</v>
       </c>
+      <c r="C22" s="55" t="s">
+        <v>45</v>
+      </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="70"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="67"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>0.5625</v>
       </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="59"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="56"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B25" s="56"/>
+      <c r="B25" s="53"/>
       <c r="C25" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B26" s="56"/>
-      <c r="C26" s="58" t="s">
-        <v>50</v>
+      <c r="B26" s="53"/>
+      <c r="C26" s="55" t="s">
+        <v>48</v>
       </c>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>0.59375</v>
       </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="70"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="67"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B28" s="57"/>
-      <c r="C28" s="71"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="68"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="41"/>
-      <c r="D29" s="42"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -2590,20 +2581,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3905A38C-55CA-4C39-B741-DA40500878B6}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C26" sqref="C26:C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="61.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7265625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="61.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2617,245 +2608,245 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="69" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="28"/>
-    </row>
-    <row r="3" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="26"/>
+    </row>
+    <row r="3" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>0.34375</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="70"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="67"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="70"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="67"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>0.36458333333333298</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="59"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="56"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>0.375</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="58" t="s">
-        <v>53</v>
+      <c r="B6" s="41"/>
+      <c r="C6" s="55" t="s">
+        <v>51</v>
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>0.38541666666666702</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="70"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="67"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="70"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="67"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>0.40625</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="70"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="67"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="29"/>
-    </row>
-    <row r="11" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="42"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="27"/>
+    </row>
+    <row r="11" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>0.42708333333333298</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="67"/>
-    </row>
-    <row r="12" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="63"/>
+      <c r="D11" s="64"/>
+    </row>
+    <row r="12" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="54"/>
-    </row>
-    <row r="13" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="49"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="51"/>
+    </row>
+    <row r="13" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B13" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="69" t="s">
-        <v>57</v>
+      <c r="B13" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="66" t="s">
+        <v>55</v>
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="70"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="67"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>0.46875</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="70"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="67"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B16" s="56"/>
-      <c r="C16" s="70"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="67"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B17" s="64"/>
-      <c r="C17" s="70"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="67"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="35">
+    <row r="18" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="32">
         <v>0.5</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
-    </row>
-    <row r="19" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="36"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
-    </row>
-    <row r="20" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="36"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39"/>
-    </row>
-    <row r="21" spans="1:4" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="37"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39"/>
-    </row>
-    <row r="22" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+    </row>
+    <row r="19" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="33"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
+    </row>
+    <row r="20" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="33"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+    </row>
+    <row r="21" spans="1:4" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="34"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
+    </row>
+    <row r="22" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B22" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="28"/>
-    </row>
-    <row r="23" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="26"/>
+    </row>
+    <row r="23" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="72"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="69"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="72"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="69"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="72"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="69"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="72" t="s">
-        <v>55</v>
+      <c r="B26" s="41"/>
+      <c r="C26" s="69" t="s">
+        <v>53</v>
       </c>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>0.59375</v>
       </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="72"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="69"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="29"/>
-    </row>
-    <row r="29" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="42"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="27"/>
+    </row>
+    <row r="29" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="54"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2884,16 +2875,16 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="61.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7265625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="61.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2907,267 +2898,267 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B2" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="69" t="s">
-        <v>61</v>
+      <c r="B2" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>59</v>
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>0.34375</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="70"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="67"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="70"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="67"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>0.36458333333333298</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="59"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="56"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>0.375</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="32" t="s">
-        <v>60</v>
+      <c r="B6" s="53"/>
+      <c r="C6" s="30" t="s">
+        <v>58</v>
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>0.38541666666666702</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="33" t="s">
-        <v>62</v>
+      <c r="B7" s="53"/>
+      <c r="C7" s="31" t="s">
+        <v>60</v>
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="33" t="s">
-        <v>63</v>
+      <c r="B8" s="53"/>
+      <c r="C8" s="31" t="s">
+        <v>61</v>
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>0.40625</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="33" t="s">
-        <v>64</v>
+      <c r="B9" s="53"/>
+      <c r="C9" s="31" t="s">
+        <v>62</v>
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="33" t="s">
-        <v>65</v>
+      <c r="B10" s="53"/>
+      <c r="C10" s="31" t="s">
+        <v>63</v>
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>0.42708333333333298</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="32" t="s">
-        <v>66</v>
+      <c r="B11" s="53"/>
+      <c r="C11" s="30" t="s">
+        <v>64</v>
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="33" t="s">
-        <v>67</v>
+      <c r="B12" s="53"/>
+      <c r="C12" s="31" t="s">
+        <v>65</v>
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="33" t="s">
-        <v>68</v>
+      <c r="B13" s="53"/>
+      <c r="C13" s="31" t="s">
+        <v>66</v>
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="33" t="s">
-        <v>69</v>
+      <c r="B14" s="53"/>
+      <c r="C14" s="31" t="s">
+        <v>67</v>
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>0.46875</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="27"/>
-    </row>
-    <row r="16" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="54"/>
+      <c r="C15" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="25"/>
+    </row>
+    <row r="16" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B16" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="51"/>
-    </row>
-    <row r="17" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="47"/>
+      <c r="D16" s="48"/>
+    </row>
+    <row r="17" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B17" s="52"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="54"/>
-    </row>
-    <row r="18" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="35">
+      <c r="B17" s="49"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
+    </row>
+    <row r="18" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="32">
         <v>0.5</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
-    </row>
-    <row r="19" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="36"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
-    </row>
-    <row r="20" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="36"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39"/>
-    </row>
-    <row r="21" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="37"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39"/>
-    </row>
-    <row r="22" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+    </row>
+    <row r="19" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="33"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
+    </row>
+    <row r="20" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="33"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+    </row>
+    <row r="21" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="34"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
+    </row>
+    <row r="22" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B22" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>76</v>
+      <c r="B22" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>74</v>
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="34" t="s">
-        <v>71</v>
+      <c r="B23" s="53"/>
+      <c r="C23" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>0.5625</v>
       </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="33" t="s">
-        <v>72</v>
+      <c r="B24" s="53"/>
+      <c r="C24" s="31" t="s">
+        <v>70</v>
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="33" t="s">
-        <v>73</v>
+      <c r="B25" s="53"/>
+      <c r="C25" s="31" t="s">
+        <v>71</v>
       </c>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B26" s="56"/>
-      <c r="C26" s="33" t="s">
-        <v>74</v>
+      <c r="B26" s="53"/>
+      <c r="C26" s="31" t="s">
+        <v>72</v>
       </c>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>0.59375</v>
       </c>
-      <c r="B27" s="64"/>
-      <c r="C27" s="33" t="s">
-        <v>75</v>
+      <c r="B27" s="61"/>
+      <c r="C27" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B28" s="75" t="s">
+      <c r="B28" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="76"/>
-      <c r="D28" s="77"/>
-    </row>
-    <row r="29" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C28" s="73"/>
+      <c r="D28" s="74"/>
+    </row>
+    <row r="29" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B29" s="52"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="54"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/5-WebDevelopmentAndDBDesigning.xlsx
+++ b/5-WebDevelopmentAndDBDesigning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Fachinformatiker-Ausbildung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5127D10F-10AA-4815-999E-9063F736592B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F0B683-0EA8-41E4-B926-AEE36E581625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17100" yWindow="0" windowWidth="11805" windowHeight="15585" firstSheet="1" activeTab="2" xr2:uid="{9CD730A3-8F49-4384-BBDD-74FD70423D42}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{9CD730A3-8F49-4384-BBDD-74FD70423D42}"/>
   </bookViews>
   <sheets>
     <sheet name="Montag" sheetId="3" r:id="rId1"/>
@@ -2278,8 +2278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BBD3D14-1678-436F-947A-2F15D441CEA6}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I10:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2850,18 +2850,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="B11:D12"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="B18:D21"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="B22:B28"/>
     <mergeCell ref="C22:C25"/>
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="B11:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
